--- a/coverage.xlsx
+++ b/coverage.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiyenggar/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiyenggar/code/regioncitations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110B4F37-A817-5F4B-9271-3EDEB6299F30}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAC476A-E7FB-824D-A7F5-0119C236D3A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26340" yWindow="3720" windowWidth="25440" windowHeight="14380" xr2:uid="{9753368C-C503-744A-A35B-2A9B2CD5B4BA}"/>
+    <workbookView xWindow="-33180" yWindow="3720" windowWidth="32280" windowHeight="16080" activeTab="1" xr2:uid="{9753368C-C503-744A-A35B-2A9B2CD5B4BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Detailed" sheetId="2" r:id="rId1"/>
+    <sheet name="Short" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,86 +33,104 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Raw Citations Processed</t>
-  </si>
-  <si>
-    <t>ua1 with distance calculation</t>
-  </si>
-  <si>
-    <t>ua2 with distance calculation</t>
-  </si>
-  <si>
-    <t>ua3 with distance calculation</t>
-  </si>
-  <si>
-    <t>ua1 without distance calculation</t>
-  </si>
-  <si>
-    <t>ua2 without distance calculation</t>
-  </si>
-  <si>
-    <t>ua3 without distance calculation</t>
-  </si>
-  <si>
-    <t>Raw Citations InvLoc AttrErr</t>
-  </si>
-  <si>
-    <t>Raw Citations InvLoc KeyErr</t>
-  </si>
-  <si>
-    <t>Raw Citations Seen</t>
-  </si>
-  <si>
-    <t>Raw Citations Assignee AttrErr</t>
-  </si>
-  <si>
-    <t>Raw Citations Assignee KeyErr</t>
-  </si>
-  <si>
-    <t>Expanded Citations Seen</t>
-  </si>
-  <si>
-    <t>Expanded Citations Patent Location Updated to Local</t>
-  </si>
-  <si>
-    <t>Expanded Citations Citation Location Updated to Local</t>
-  </si>
-  <si>
-    <t>Expanded Citations Patent Location Updated to Non-Local</t>
-  </si>
-  <si>
-    <t>Expanded Citations Citation Location Updated to Non-Local</t>
-  </si>
-  <si>
-    <t>Expanded Citations Total Local Updates</t>
-  </si>
-  <si>
-    <t>Expanded Citations Total Non-Local Updates</t>
-  </si>
-  <si>
-    <t>Expanded Citations Total Updates</t>
-  </si>
-  <si>
-    <t>Expanded Citaitons Total Updates (%)</t>
-  </si>
-  <si>
-    <t>Expanded Citations Urban Area, Assignee Defined (2way)</t>
-  </si>
-  <si>
-    <t>Expanded Citations
-Processed (%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+  <si>
+    <t>Urban Area</t>
+  </si>
+  <si>
+    <t>ua1</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ua2</t>
+  </si>
+  <si>
+    <t>ua3</t>
+  </si>
+  <si>
+    <t>Raw Citations</t>
+  </si>
+  <si>
+    <t>Expanded Citations</t>
+  </si>
+  <si>
+    <t>Citations Seen</t>
+  </si>
+  <si>
+    <t>Inventor Location AttributeError</t>
+  </si>
+  <si>
+    <t>Inventor Location KeyError</t>
+  </si>
+  <si>
+    <t>Assignee AttributeError</t>
+  </si>
+  <si>
+    <t>Assignee KeyError</t>
+  </si>
+  <si>
+    <t>Citations Processed</t>
+  </si>
+  <si>
+    <t>Urban Area and Assignee Fully Specified (2way)</t>
+  </si>
+  <si>
+    <t>Distance Calculation
+Patent Location Updated to Local</t>
+  </si>
+  <si>
+    <t>Distance Calculation
+Citation Location Updated to Local</t>
+  </si>
+  <si>
+    <t>Distance Calculation
+Patent Location Updated to Non-Local</t>
+  </si>
+  <si>
+    <t>Distance Calculation
+Citation Location Updated to Non-Local</t>
+  </si>
+  <si>
+    <t>Distance Calculation
+Total Updated to Local</t>
+  </si>
+  <si>
+    <t>Distance Calculation
+Total Updated to Non-Local</t>
+  </si>
+  <si>
+    <t>Distance Calculation Total Updated</t>
+  </si>
+  <si>
+    <t>Distance Calculated Total Updated (%)</t>
+  </si>
+  <si>
+    <t>Citations Processed (%)</t>
+  </si>
+  <si>
+    <t>Distance Calculation at Expanded Citation</t>
+  </si>
+  <si>
+    <t>Urban Area or Assignee not Fully Specified (either way) %</t>
+  </si>
+  <si>
+    <t>Distance Calculated Total Updated (% of not Fully Specified)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,20 +140,73 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF3B2322"/>
-      <name val="Courier"/>
-      <family val="1"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -141,20 +214,173 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,391 +692,813 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E4F07D-1C5F-6E4A-97F7-0DE8A9C0D7BC}">
-  <dimension ref="A1:R8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939974BA-8318-9F47-B835-87B86A9F65B9}">
+  <dimension ref="B2:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="11" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="17.5" customWidth="1"/>
-    <col min="15" max="15" width="18.5" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="17.6640625" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="18.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" style="2" customWidth="1"/>
+    <col min="15" max="16" width="19.1640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="2" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18" style="2" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="18.6640625" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="2:21" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="K3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>23</v>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>94726691</v>
+      </c>
+      <c r="E4" s="9">
+        <v>16585</v>
+      </c>
+      <c r="F4" s="9">
+        <v>17578660</v>
+      </c>
+      <c r="G4" s="9">
+        <v>19478203</v>
+      </c>
+      <c r="H4" s="9">
+        <v>17578660</v>
+      </c>
+      <c r="I4" s="9">
+        <v>94726505</v>
+      </c>
+      <c r="J4" s="9">
+        <v>641227927</v>
+      </c>
+      <c r="K4" s="9">
+        <v>318492600</v>
+      </c>
+      <c r="L4" s="9">
+        <f>ROUND((J4-K4)*100/J4,2)</f>
+        <v>50.33</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <f>SUM(M4:N4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="9">
+        <f>SUM(O4:P4)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="9">
+        <f>SUM(M4:P4)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="9">
+        <f>ROUND(S4*100/(J4-K4),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="9">
+        <f>ROUND((K4+S4)*100/J4,2)</f>
+        <v>49.67</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>94726691</v>
+      </c>
+      <c r="E5" s="9">
+        <v>16585</v>
+      </c>
+      <c r="F5" s="9">
+        <v>17578660</v>
+      </c>
+      <c r="G5" s="9">
+        <v>19478203</v>
+      </c>
+      <c r="H5" s="9">
+        <v>17578660</v>
+      </c>
+      <c r="I5" s="9">
+        <v>94726505</v>
+      </c>
+      <c r="J5" s="9">
+        <v>641227927</v>
+      </c>
+      <c r="K5" s="9">
+        <v>318492600</v>
+      </c>
+      <c r="L5" s="9">
+        <f>ROUND((J5-K5)*100/J5,2)</f>
+        <v>50.33</v>
+      </c>
+      <c r="M5" s="9">
+        <v>3555990</v>
+      </c>
+      <c r="N5" s="9">
+        <v>3151748</v>
+      </c>
+      <c r="O5" s="9">
+        <v>99367909</v>
+      </c>
+      <c r="P5" s="9">
+        <v>100213052</v>
+      </c>
+      <c r="Q5" s="9">
+        <f t="shared" ref="Q5:Q9" si="0">SUM(M5:N5)</f>
+        <v>6707738</v>
+      </c>
+      <c r="R5" s="9">
+        <f t="shared" ref="R5:R9" si="1">SUM(O5:P5)</f>
+        <v>199580961</v>
+      </c>
+      <c r="S5" s="9">
+        <f t="shared" ref="S5:S9" si="2">SUM(M5:P5)</f>
+        <v>206288699</v>
+      </c>
+      <c r="T5" s="9">
+        <f t="shared" ref="T5:T9" si="3">ROUND(S5*100/(J5-K5),2)</f>
+        <v>63.92</v>
+      </c>
+      <c r="U5" s="9">
+        <f t="shared" ref="U5:U9" si="4">ROUND((K5+S5)*100/J5,2)</f>
+        <v>81.84</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10">
+        <v>94726691</v>
+      </c>
+      <c r="E6" s="10">
+        <v>16585</v>
+      </c>
+      <c r="F6" s="10">
+        <v>17578660</v>
+      </c>
+      <c r="G6" s="10">
+        <v>19478203</v>
+      </c>
+      <c r="H6" s="10">
+        <v>17578660</v>
+      </c>
+      <c r="I6" s="10">
+        <v>94726505</v>
+      </c>
+      <c r="J6" s="10">
+        <v>641227927</v>
+      </c>
+      <c r="K6" s="10">
+        <v>426102559</v>
+      </c>
+      <c r="L6" s="10">
+        <f>ROUND((J6-K6)*100/J6,2)</f>
+        <v>33.549999999999997</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <f>SUM(M6:P6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="10">
+        <f t="shared" si="4"/>
+        <v>66.45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10">
+        <v>94726691</v>
+      </c>
+      <c r="E7" s="10">
+        <v>16585</v>
+      </c>
+      <c r="F7" s="10">
+        <v>17578660</v>
+      </c>
+      <c r="G7" s="10">
+        <v>19478203</v>
+      </c>
+      <c r="H7" s="10">
+        <v>17578660</v>
+      </c>
+      <c r="I7" s="10">
+        <v>94726505</v>
+      </c>
+      <c r="J7" s="10">
+        <v>641227927</v>
+      </c>
+      <c r="K7" s="10">
+        <v>426102559</v>
+      </c>
+      <c r="L7" s="10">
+        <f>ROUND((J7-K7)*100/J7,2)</f>
+        <v>33.549999999999997</v>
+      </c>
+      <c r="M7" s="10">
+        <v>1384119</v>
+      </c>
+      <c r="N7" s="10">
+        <v>1270959</v>
+      </c>
+      <c r="O7" s="10">
+        <v>55483365</v>
+      </c>
+      <c r="P7" s="10">
+        <v>59017253</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="0"/>
+        <v>2655078</v>
+      </c>
+      <c r="R7" s="10">
+        <f t="shared" si="1"/>
+        <v>114500618</v>
+      </c>
+      <c r="S7" s="10">
+        <f t="shared" si="2"/>
+        <v>117155696</v>
+      </c>
+      <c r="T7" s="10">
+        <f t="shared" si="3"/>
+        <v>54.46</v>
+      </c>
+      <c r="U7" s="10">
+        <f t="shared" si="4"/>
+        <v>84.72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="C8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11">
         <v>94726691</v>
       </c>
-      <c r="C3">
+      <c r="E8" s="11">
         <v>16585</v>
       </c>
-      <c r="D3">
+      <c r="F8" s="11">
         <v>17578660</v>
       </c>
-      <c r="E3">
+      <c r="G8" s="11">
         <v>19478203</v>
       </c>
-      <c r="F3">
+      <c r="H8" s="11">
         <v>17578660</v>
       </c>
-      <c r="G3">
+      <c r="I8" s="11">
         <v>94726505</v>
       </c>
-      <c r="H3">
+      <c r="J8" s="11">
         <v>641227927</v>
       </c>
-      <c r="I3">
-        <v>318492600</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <f>SUM(J3:K3)</f>
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f>SUM(L3:M3)</f>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f>SUM(J3:M3)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f>ROUND(P3*100/(H3-I3),2)</f>
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <f>ROUND((I3+P3)*100/H3,2)</f>
-        <v>49.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>94726691</v>
-      </c>
-      <c r="C4">
-        <v>16585</v>
-      </c>
-      <c r="D4">
-        <v>17578660</v>
-      </c>
-      <c r="E4">
-        <v>19478203</v>
-      </c>
-      <c r="F4">
-        <v>17578660</v>
-      </c>
-      <c r="G4">
-        <v>94726505</v>
-      </c>
-      <c r="H4">
-        <v>641227927</v>
-      </c>
-      <c r="I4">
-        <v>318492600</v>
-      </c>
-      <c r="J4">
-        <v>3555990</v>
-      </c>
-      <c r="K4">
-        <v>3151748</v>
-      </c>
-      <c r="L4">
-        <v>99367909</v>
-      </c>
-      <c r="M4">
-        <v>100213052</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N8" si="0">SUM(J4:K4)</f>
-        <v>6707738</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O8" si="1">SUM(L4:M4)</f>
-        <v>199580961</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P8" si="2">SUM(J4:M4)</f>
-        <v>206288699</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q8" si="3">ROUND(P4*100/(H4-I4),2)</f>
-        <v>63.92</v>
-      </c>
-      <c r="R4">
-        <f t="shared" ref="R4:R8" si="4">ROUND((I4+P4)*100/H4,2)</f>
-        <v>81.84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5">
+      <c r="K8" s="11">
+        <v>473115101</v>
+      </c>
+      <c r="L8" s="11">
+        <f>ROUND((J8-K8)*100/J8,2)</f>
+        <v>26.22</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="R8" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P5">
+      <c r="S8" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q5" t="e">
+      <c r="T8" s="11">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R5" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R6" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>94726691</v>
-      </c>
-      <c r="C7">
-        <v>16585</v>
-      </c>
-      <c r="D7">
-        <v>17578660</v>
-      </c>
-      <c r="E7">
-        <v>19478203</v>
-      </c>
-      <c r="F7">
-        <v>17578660</v>
-      </c>
-      <c r="G7">
-        <v>94726505</v>
-      </c>
-      <c r="H7">
-        <v>641227927</v>
-      </c>
-      <c r="I7">
-        <v>473115101</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="U8" s="11">
         <f t="shared" si="4"/>
         <v>73.78</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="11">
         <v>94726691</v>
       </c>
-      <c r="C8">
+      <c r="E9" s="11">
         <v>16585</v>
       </c>
-      <c r="D8">
+      <c r="F9" s="11">
         <v>17578660</v>
       </c>
-      <c r="E8">
+      <c r="G9" s="11">
         <v>19478203</v>
       </c>
-      <c r="F8">
+      <c r="H9" s="11">
         <v>17578660</v>
       </c>
-      <c r="G8">
+      <c r="I9" s="11">
         <v>94726505</v>
       </c>
-      <c r="H8">
+      <c r="J9" s="11">
         <v>641227927</v>
       </c>
-      <c r="I8">
+      <c r="K9" s="11">
         <v>473115101</v>
       </c>
-      <c r="J8">
+      <c r="L9" s="11">
+        <f>ROUND((J9-K9)*100/J9,2)</f>
+        <v>26.22</v>
+      </c>
+      <c r="M9" s="11">
         <v>125680</v>
       </c>
-      <c r="K8">
+      <c r="N9" s="11">
         <v>133244</v>
       </c>
-      <c r="L8">
+      <c r="O9" s="11">
         <v>32170212</v>
       </c>
-      <c r="M8">
+      <c r="P9" s="11">
         <v>38771996</v>
       </c>
-      <c r="N8">
+      <c r="Q9" s="11">
         <f t="shared" si="0"/>
         <v>258924</v>
       </c>
-      <c r="O8">
+      <c r="R9" s="11">
         <f t="shared" si="1"/>
         <v>70942208</v>
       </c>
-      <c r="P8">
+      <c r="S9" s="11">
         <f t="shared" si="2"/>
         <v>71201132</v>
       </c>
-      <c r="Q8">
+      <c r="T9" s="11">
         <f t="shared" si="3"/>
         <v>42.35</v>
       </c>
-      <c r="R8">
+      <c r="U9" s="11">
         <f t="shared" si="4"/>
         <v>84.89</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:U2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="N3:P4 P7:P8 O7:O8 N7:N8" formulaRange="1"/>
-  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E4F07D-1C5F-6E4A-97F7-0DE8A9C0D7BC}">
+  <dimension ref="B2:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="18.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="18" style="34" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="2:10" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="21">
+        <v>94726691</v>
+      </c>
+      <c r="E4" s="26">
+        <v>641227927</v>
+      </c>
+      <c r="F4" s="31">
+        <v>318492600</v>
+      </c>
+      <c r="G4" s="16">
+        <f>(E4-F4)/E4</f>
+        <v>0.50330828307794528</v>
+      </c>
+      <c r="H4" s="31">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <f>ROUND(H4/(E4-F4),2)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
+        <f>(F4+H4)/E4</f>
+        <v>0.49669171692205477</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="21">
+        <v>94726691</v>
+      </c>
+      <c r="E5" s="26">
+        <v>641227927</v>
+      </c>
+      <c r="F5" s="31">
+        <v>318492600</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" ref="G5:G9" si="0">(E5-F5)/E5</f>
+        <v>0.50330828307794528</v>
+      </c>
+      <c r="H5" s="31">
+        <v>206288699</v>
+      </c>
+      <c r="I5" s="16">
+        <f>ROUND(H5/(E5-F5),2)</f>
+        <v>0.64</v>
+      </c>
+      <c r="J5" s="16">
+        <f>(F5+H5)/E5</f>
+        <v>0.81840056694848229</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="22">
+        <v>94726691</v>
+      </c>
+      <c r="E6" s="27">
+        <v>641227927</v>
+      </c>
+      <c r="F6" s="32">
+        <v>426102559</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="0"/>
+        <v>0.33548970489552615</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <f>ROUND(H6/(E6-F6),2)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <f>(F6+H6)/E6</f>
+        <v>0.66451029510447379</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="22">
+        <v>94726691</v>
+      </c>
+      <c r="E7" s="27">
+        <v>641227927</v>
+      </c>
+      <c r="F7" s="32">
+        <v>426102559</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="0"/>
+        <v>0.33548970489552615</v>
+      </c>
+      <c r="H7" s="32">
+        <v>117155696</v>
+      </c>
+      <c r="I7" s="17">
+        <f>ROUND(H7/(E7-F7),2)</f>
+        <v>0.54</v>
+      </c>
+      <c r="J7" s="17">
+        <f>(F7+H7)/E7</f>
+        <v>0.84721552528388244</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="23">
+        <v>94726691</v>
+      </c>
+      <c r="E8" s="28">
+        <v>641227927</v>
+      </c>
+      <c r="F8" s="33">
+        <v>473115101</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.26217327555666492</v>
+      </c>
+      <c r="H8" s="33">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18">
+        <f>ROUND(H8/(E8-F8),2)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
+        <f>(F8+H8)/E8</f>
+        <v>0.73782672444333508</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="23">
+        <v>94726691</v>
+      </c>
+      <c r="E9" s="28">
+        <v>641227927</v>
+      </c>
+      <c r="F9" s="33">
+        <v>473115101</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
+        <v>0.26217327555666492</v>
+      </c>
+      <c r="H9" s="33">
+        <v>71201132</v>
+      </c>
+      <c r="I9" s="18">
+        <f>ROUND(H9/(E9-F9),2)</f>
+        <v>0.42</v>
+      </c>
+      <c r="J9" s="18">
+        <f>(F9+H9)/E9</f>
+        <v>0.84886545030344573</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E2FFC5-94A1-544C-B41E-1FFD0D9461E5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>